--- a/fuentes/ipc_trimestral_2024.xlsx
+++ b/fuentes/ipc_trimestral_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josed\Documents\Repositorios_git\pobreza_arg\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7FC099-4038-4DCC-977D-72EC468C0BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C081732-408D-4AA5-AED0-47F06ED34E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{457A68E5-7A28-4D3A-9214-EAC7DE01EC65}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{457A68E5-7A28-4D3A-9214-EAC7DE01EC65}"/>
   </bookViews>
   <sheets>
     <sheet name="indice-precios-al-consumidor-ni" sheetId="1" r:id="rId1"/>
@@ -65,19 +65,19 @@
     <t>Año</t>
   </si>
   <si>
+    <t>ipc2024</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
     <t>II</t>
   </si>
   <si>
-    <t>IV</t>
-  </si>
-  <si>
     <t>III</t>
   </si>
   <si>
-    <t>ipc2024</t>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -942,22 +942,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F33FC64-F790-4FEC-B42E-E4FE8376658A}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,10 +989,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -1021,14 +1021,14 @@
         <v>2017</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2">
         <f>(B2/$B$32)*100</f>
         <v>1.5107596449056873</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>42826</v>
       </c>
@@ -1057,14 +1057,14 @@
         <v>2017</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K32" si="0">(B3/$B$32)*100</f>
         <v>1.6074204084955936</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>42917</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1.6821022984276301</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43009</v>
       </c>
@@ -1129,14 +1129,14 @@
         <v>2017</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
         <v>1.7713809819298747</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43101</v>
       </c>
@@ -1165,14 +1165,14 @@
         <v>2018</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
         <v>1.8927208004070577</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43191</v>
       </c>
@@ -1201,14 +1201,14 @@
         <v>2018</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
         <v>2.0430650089927735</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43282</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>2.2783121133176523</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43374</v>
       </c>
@@ -1273,14 +1273,14 @@
         <v>2018</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
         <v>2.6101491536256241</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43466</v>
       </c>
@@ -1309,14 +1309,14 @@
         <v>2019</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
         <v>2.8734532075377985</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43556</v>
       </c>
@@ -1345,14 +1345,14 @@
         <v>2019</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
         <v>3.192859032609765</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43647</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>3.5113605928934302</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43739</v>
       </c>
@@ -1417,14 +1417,14 @@
         <v>2019</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
         <v>3.9718089242706984</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43831</v>
       </c>
@@ -1453,14 +1453,14 @@
         <v>2020</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
         <v>4.3226544448359352</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43922</v>
       </c>
@@ -1489,14 +1489,14 @@
         <v>2020</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
         <v>4.5941250188372296</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44013</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>4.9088639837893684</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44105</v>
       </c>
@@ -1561,14 +1561,14 @@
         <v>2020</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
         <v>5.4166659066444041</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44197</v>
       </c>
@@ -1597,14 +1597,14 @@
         <v>2021</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
         <v>6.0796879851812387</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44287</v>
       </c>
@@ -1633,14 +1633,14 @@
         <v>2021</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
         <v>6.8206995058639182</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44378</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>7.4562535712152602</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44470</v>
       </c>
@@ -1705,14 +1705,14 @@
         <v>2021</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
         <v>8.2007506833699715</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44562</v>
       </c>
@@ -1741,14 +1741,14 @@
         <v>2022</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
         <v>9.2877424501749122</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44652</v>
       </c>
@@ -1777,14 +1777,14 @@
         <v>2022</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
         <v>10.978641925464593</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44743</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>13.244763443361144</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -1849,14 +1849,14 @@
         <v>2022</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
         <v>15.730488866889864</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44927</v>
       </c>
@@ -1885,14 +1885,14 @@
         <v>2023</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
         <v>18.758876979199862</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45017</v>
       </c>
@@ -1921,14 +1921,14 @@
         <v>2023</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
         <v>23.384829304885415</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45108</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>29.918799738686847</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45200</v>
       </c>
@@ -1993,14 +1993,14 @@
         <v>2023</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
         <v>42.91147802700597</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45292</v>
       </c>
@@ -2029,14 +2029,14 @@
         <v>2024</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
         <v>70.072824169127117</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45383</v>
       </c>
@@ -2065,14 +2065,14 @@
         <v>2024</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
         <v>88.561957118521789</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45474</v>
       </c>

--- a/fuentes/ipc_trimestral_2024.xlsx
+++ b/fuentes/ipc_trimestral_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josed\Documents\Repositorios_git\pobreza_arg\fuentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C081732-408D-4AA5-AED0-47F06ED34E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47F5DD-82F6-4EF1-B15C-5C180AED942D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{457A68E5-7A28-4D3A-9214-EAC7DE01EC65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{457A68E5-7A28-4D3A-9214-EAC7DE01EC65}"/>
   </bookViews>
   <sheets>
     <sheet name="indice-precios-al-consumidor-ni" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>indice_tiempo</t>
   </si>
@@ -940,24 +940,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F33FC64-F790-4FEC-B42E-E4FE8376658A}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K2:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.7265625" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -1024,11 +1024,11 @@
         <v>11</v>
       </c>
       <c r="K2">
-        <f>(B2/$B$32)*100</f>
-        <v>1.5107596449056873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K2:K33" si="0">(B2/$B$34)*100</f>
+        <v>1.2831224914797699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42826</v>
       </c>
@@ -1060,11 +1060,11 @@
         <v>12</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K32" si="0">(B3/$B$32)*100</f>
-        <v>1.6074204084955936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>1.3652186741677581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42917</v>
       </c>
@@ -1097,10 +1097,10 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1.6821022984276301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.4286477000893463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43009</v>
       </c>
@@ -1133,10 +1133,10 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.7713809819298747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.5044741144350815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43101</v>
       </c>
@@ -1169,10 +1169,10 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.8927208004070577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.6075307791567985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43191</v>
       </c>
@@ -1205,10 +1205,10 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>2.0430650089927735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.7352215313889985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43282</v>
       </c>
@@ -1241,10 +1241,10 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2.2783121133176523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.9350222420001049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43374</v>
       </c>
@@ -1277,10 +1277,10 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>2.6101491536256241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.2168589798035021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43466</v>
       </c>
@@ -1313,10 +1313,10 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2.8734532075377985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.4404890951641782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43556</v>
       </c>
@@ -1349,10 +1349,10 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>3.192859032609765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.7117677194254699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43647</v>
       </c>
@@ -1385,10 +1385,10 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>3.5113605928934302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.982278331056802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43739</v>
       </c>
@@ -1421,10 +1421,10 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>3.9718089242706984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.3733475604651537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43831</v>
       </c>
@@ -1457,10 +1457,10 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>4.3226544448359352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.6713286324312948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43922</v>
       </c>
@@ -1493,10 +1493,10 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>4.5941250188372296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.9018947588502528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44013</v>
       </c>
@@ -1529,10 +1529,10 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>4.9088639837893684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.1692097127788523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44105</v>
       </c>
@@ -1565,10 +1565,10 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>5.4166659066444041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.6004974233217482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44197</v>
       </c>
@@ -1601,10 +1601,10 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>6.0796879851812387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.1636171387490073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44287</v>
       </c>
@@ -1637,10 +1637,10 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>6.8206995058639182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.7929750593419493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44378</v>
       </c>
@@ -1673,10 +1673,10 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>7.4562535712152602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.332765567086561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44470</v>
       </c>
@@ -1709,10 +1709,10 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>8.2007506833699715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.9650838797107246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44562</v>
       </c>
@@ -1745,10 +1745,10 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>9.2877424501749122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>7.8882906841444136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44652</v>
       </c>
@@ -1781,10 +1781,10 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>10.978641925464593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>9.3244100264180645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44743</v>
       </c>
@@ -1817,10 +1817,10 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>13.244763443361144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>11.249078518751841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44835</v>
       </c>
@@ -1853,10 +1853,10 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>15.730488866889864</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>13.360261597627293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44927</v>
       </c>
@@ -1889,10 +1889,10 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>18.758876979199862</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>15.9323404275973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45017</v>
       </c>
@@ -1925,10 +1925,10 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>23.384829304885415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>19.861266841282934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45108</v>
       </c>
@@ -1961,10 +1961,10 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>29.918799738686847</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>25.410716385123401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45200</v>
       </c>
@@ -1997,10 +1997,10 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>42.91147802700597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>36.445693254222839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45292</v>
       </c>
@@ -2033,10 +2033,10 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>70.072824169127117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>59.514441649338053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45383</v>
       </c>
@@ -2069,10 +2069,10 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>88.561957118521789</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>75.217682343729919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45474</v>
       </c>
@@ -2105,6 +2105,78 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
+        <v>84.932272039863207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B33">
+        <v>7499.7977000000001</v>
+      </c>
+      <c r="C33">
+        <v>7473.0817999999999</v>
+      </c>
+      <c r="D33">
+        <v>7504.5334000000003</v>
+      </c>
+      <c r="E33">
+        <v>7546.6813666666603</v>
+      </c>
+      <c r="F33">
+        <v>7529.8135999999904</v>
+      </c>
+      <c r="G33">
+        <v>7618.5033333333304</v>
+      </c>
+      <c r="H33">
+        <v>7504.4963333333299</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2024</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>92.702886625736639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B34">
+        <v>8090.1447333333299</v>
+      </c>
+      <c r="C34">
+        <v>8053.76663333333</v>
+      </c>
+      <c r="D34">
+        <v>8096.2442333333302</v>
+      </c>
+      <c r="E34">
+        <v>8114.4059999999999</v>
+      </c>
+      <c r="F34">
+        <v>8165.4926999999998</v>
+      </c>
+      <c r="G34">
+        <v>8179.03373333333</v>
+      </c>
+      <c r="H34">
+        <v>8169.6602000000003</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2024</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <f>(B34/$B$34)*100</f>
         <v>100</v>
       </c>
     </row>
